--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STATEMENT OF ACCOUNT</t>
+          <t>AJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77770106311893</t>
+          <t>309612519672</t>
         </is>
       </c>
     </row>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ecm</t>
+          <t>AJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>309612519672</t>
+          <t>77770106311893</t>
         </is>
       </c>
     </row>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STATEMENT OF ACCOUNT</t>
+          <t>MITA BISWAS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77770106311893</t>
+          <t>916010029755238</t>
         </is>
       </c>
     </row>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>RASHMI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77770106311893</t>
+          <t>916010021509567</t>
         </is>
       </c>
     </row>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RASHMI</t>
+          <t>AIYAZ ANWAR QURES-QURESHI.AIYAZ12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>916010021509567</t>
+          <t>50100575475699</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>POOJAN MANISH VIG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>50100575475700</t>
         </is>
       </c>
     </row>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,18 +457,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>POOJAN MANISH VIG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>50100575475700</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>916010029755238</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AIYAZ ANWAR QURES-QURESHI.AIYAZ12</t>
+          <t>18-OCT-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50100575475699</t>
+          <t>5256220413558945</t>
         </is>
       </c>
     </row>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-OCT-2024</t>
+          <t>AIYAZ ANWAR QURES-QURESHI.AIYAZ12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5256220413558945</t>
+          <t>50100575475699</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>POOJAN MANISH VIG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>50100575475700</t>
         </is>
       </c>
     </row>

--- a/src/utils/del/name_acc_df.xlsx
+++ b/src/utils/del/name_acc_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,24 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AIYAZ ANWAR QURES-QURESHI.AIYAZ12</t>
+          <t>18-OCT-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50100575475699</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>POOJAN MANISH VIG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>50100575475700</t>
+          <t>5256220413558945</t>
         </is>
       </c>
     </row>
